--- a/src/main/resources/static/file/sample.xlsx
+++ b/src/main/resources/static/file/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\main\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF7A806-C125-4E96-94E4-95A7BD96EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C88F4C-5FFC-482D-B50B-503E86E70445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
+    <workbookView xWindow="10320" yWindow="2025" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,22 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객 15자 제한 잘못된 고객 잘못된 고객</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화 번호 형식이 아님 0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 제한은 50자 제한 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부 주소는 20자 제한 101동 1005호 101동 1005호 101동 1005호 101동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +71,22 @@
   </si>
   <si>
     <t>예시 데이터는 전부 지우고 작성해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화 번호 형식 지키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 주소는 40자 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 제한은 50자 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 15자 이하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,21 +522,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -550,21 +550,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/file/sample.xlsx
+++ b/src/main/resources/static/file/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\main\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF7A806-C125-4E96-94E4-95A7BD96EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F7B5D1-CF4F-4CCB-B9E3-FA9460CF4F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>010-1111-2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,22 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객 15자 제한 잘못된 고객 잘못된 고객</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화 번호 형식이 아님 0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 제한은 50자 제한 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112, 인천광역시 부평구 부평북로 112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부 주소는 20자 제한 101동 1005호 101동 1005호 101동 1005호 101동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +72,52 @@
   <si>
     <t>예시 데이터는 전부 지우고 작성해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 또는 하이픈('-') 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 15자 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소는 50자 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 주소 20자 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인적인 메모를 작성해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모 200자 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-2223</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평북로 112</t>
+  </si>
+  <si>
+    <t>101동 1005호</t>
+  </si>
+  <si>
+    <t>010-1111-2224</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평북로 113</t>
+  </si>
+  <si>
+    <t>101동 1006호</t>
   </si>
 </sst>
 </file>
@@ -506,37 +536,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5454262-A095-4D4C-8F12-F1A27FC839A6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -547,24 +581,64 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
